--- a/B116AFW/Data/input.xlsx
+++ b/B116AFW/Data/input.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B116_8.30PM_Selenium(Py)\share\workspace\B116AFW\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vijay\PycharmProjects\B116AFW\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C604207B-B191-4EF2-B3AF-949B378E0BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673706F6-F8E3-4185-B31E-F8D2A4D4EA8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="valid_login" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,9 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>akshara</t>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>pointofsale</t>
   </si>
 </sst>
 </file>
@@ -345,17 +354,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/B116AFW/Data/input.xlsx
+++ b/B116AFW/Data/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vijay\PycharmProjects\B116AFW\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673706F6-F8E3-4185-B31E-F8D2A4D4EA8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABB3C34-85E9-4CCB-B606-7AED88DCDA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -357,10 +357,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">

--- a/B116AFW/Data/input.xlsx
+++ b/B116AFW/Data/input.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vijay\PycharmProjects\B116AFW\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABB3C34-85E9-4CCB-B606-7AED88DCDA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9298387C-806C-42CD-9A8F-8CC85E848B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valid_login" sheetId="1" r:id="rId1"/>
+    <sheet name="Invalid_login" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>username</t>
   </si>
@@ -37,6 +38,12 @@
   </si>
   <si>
     <t>pointofsale</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>pos</t>
   </si>
 </sst>
 </file>
@@ -356,8 +363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -384,4 +391,35 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41454733-95B1-4546-97E3-B9AD635E64D0}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>